--- a/ДЗ 6_тест кейсы товары vk.xlsx
+++ b/ДЗ 6_тест кейсы товары vk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Тестировщик\Курс\ДЗ6\ДЗ6_Ponomareva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Работа\Тестировщик\Курс\Тесты на репозитории\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>passed</t>
   </si>
@@ -622,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,6 +732,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -825,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -905,6 +914,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -914,27 +944,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1331,10 +1344,10 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1375,7 @@
     <col min="21" max="21" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1378,7 +1391,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="15">
         <f>COUNTIF(L$8:L$30,"failed")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1" s="10"/>
       <c r="N1" s="15">
@@ -1407,7 +1420,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1421,9 +1434,8 @@
         <v>14</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="16">
-        <f>COUNTIF(L$8:L$30,"passed")</f>
-        <v>0</v>
+      <c r="L2" s="39">
+        <v>44064</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="16">
@@ -1452,7 +1464,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1482,7 +1494,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1508,7 +1520,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1550,43 +1562,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="36" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="29"/>
+      <c r="P6" s="36"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="29"/>
+      <c r="R6" s="36"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="29"/>
+      <c r="T6" s="36"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1594,31 +1606,31 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="38"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="29"/>
+      <c r="L7" s="36"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="29"/>
+      <c r="P7" s="36"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="29"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="29"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1648,7 +1660,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1684,7 +1698,9 @@
       <c r="I9" s="20"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1720,7 +1736,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1756,7 +1774,9 @@
       <c r="I11" s="20"/>
       <c r="J11" s="19"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5"/>
       <c r="O11" s="10"/>
@@ -1792,7 +1812,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1828,7 +1850,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -1864,7 +1888,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -1900,7 +1926,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -1936,7 +1964,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -1972,7 +2002,9 @@
       <c r="I17" s="27"/>
       <c r="J17" s="19"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="40" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -2008,7 +2040,9 @@
       <c r="I18" s="20"/>
       <c r="J18" s="19"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="5"/>
       <c r="O18" s="10"/>
@@ -2042,7 +2076,9 @@
       <c r="I19" s="20"/>
       <c r="J19" s="19"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="10"/>
       <c r="N19" s="5"/>
       <c r="O19" s="10"/>
@@ -2078,7 +2114,9 @@
       <c r="I20" s="20"/>
       <c r="J20" s="19"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="5"/>
       <c r="O20" s="10"/>
@@ -2853,12 +2891,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -2866,6 +2898,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L8:L30 R8:R30 P8:P30 T8:T30 N8:N30">
